--- a/Results/Notebook 2 Example 2/Scores/problem_2_instance2_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_2_instance2_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02126024409021931</v>
+        <v>0.01725977985153514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1823526355609974</v>
+        <v>0.2126533318958536</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.050209836324621</v>
+        <v>0.06494109381072437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2531368014486354</v>
+        <v>0.2253125392105234</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8541374491704733</v>
+        <v>0.8704471580490418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4859306564196525</v>
+        <v>0.5474270679820905</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9838233166090915</v>
+        <v>0.9933034061575118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4572400093668194</v>
+        <v>0.4673423134879546</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9865652525915126</v>
+        <v>0.9716928825097153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7812627606730455</v>
+        <v>0.8067378392971114</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9401421080949232</v>
+        <v>0.9459351052397782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3475577074665042</v>
+        <v>0.3767165195422588</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009860873222351074</v>
+        <v>0.008739812970161439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1619455218315125</v>
+        <v>0.1716621780395508</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.145429305385359</v>
+        <v>0.1226151811912138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2333064398826168</v>
+        <v>0.2223454458028964</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7553699607836466</v>
+        <v>0.6911459381654664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.427649991150143</v>
+        <v>0.3483966465056509</v>
       </c>
     </row>
   </sheetData>
